--- a/src/main/resources/FetchData/MenuList_aldo.xlsx
+++ b/src/main/resources/FetchData/MenuList_aldo.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Pivotree_Work\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ECBE87-FFED-4BB4-A9B8-705DC63A25D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7097E950-EDB3-4835-A9DC-C67FF3AEEF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Handbags" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Handbags_Collections" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,46 +37,46 @@
     <t>CrossBody &amp; Shoulder Bags</t>
   </si>
   <si>
+    <t>Clutches</t>
+  </si>
+  <si>
+    <t>Quilted Handbags</t>
+  </si>
+  <si>
+    <t>Monogram Handbags</t>
+  </si>
+  <si>
+    <t>The Finer Things</t>
+  </si>
+  <si>
+    <t>On-The-Go Handbags</t>
+  </si>
+  <si>
+    <t>Festive Handbags</t>
+  </si>
+  <si>
+    <t>Laptop Bag &amp; Sleeve</t>
+  </si>
+  <si>
+    <t>Glam Handbags</t>
+  </si>
+  <si>
+    <t>Clutch Comeback</t>
+  </si>
+  <si>
     <t>Totes &amp; Satchel</t>
   </si>
   <si>
+    <t>Everyday Totes</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>Top Handle</t>
+  </si>
+  <si>
     <t>Wallets</t>
-  </si>
-  <si>
-    <t>Clutches</t>
-  </si>
-  <si>
-    <t>Quilted Handbags</t>
-  </si>
-  <si>
-    <t>Monogram Handbags</t>
-  </si>
-  <si>
-    <t>The Finer Things</t>
-  </si>
-  <si>
-    <t>Glam Handbags</t>
-  </si>
-  <si>
-    <t>On-The-Go Handbags</t>
-  </si>
-  <si>
-    <t>Festive Handbags</t>
-  </si>
-  <si>
-    <t>Clutch Comeback</t>
-  </si>
-  <si>
-    <t>Everyday Totes333</t>
-  </si>
-  <si>
-    <t>Laptop Bag &amp; Sleeve</t>
-  </si>
-  <si>
-    <t>Backpack</t>
-  </si>
-  <si>
-    <t>Top Handle</t>
   </si>
 </sst>
 </file>
@@ -403,80 +403,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -486,15 +461,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C505ACD-6A4C-491E-B763-C3E0F91D3D19}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
